--- a/TCMuscle.xlsx
+++ b/TCMuscle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499DC389-F97A-4BB5-ACCE-5DCDA74C8C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4817B6D4-D44C-4C42-9F83-733FD98C16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99A2342B-7E54-45F3-9C63-B2593C580EB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
   <si>
     <t>Trawl:</t>
   </si>
@@ -124,6 +124,138 @@
   </si>
   <si>
     <t>TCMM156</t>
+  </si>
+  <si>
+    <t>TCMNG01</t>
+  </si>
+  <si>
+    <t>TCMNG02</t>
+  </si>
+  <si>
+    <t>TCMNG03</t>
+  </si>
+  <si>
+    <t>TCMNG04</t>
+  </si>
+  <si>
+    <t>TCMNG05</t>
+  </si>
+  <si>
+    <t>TCMNG06</t>
+  </si>
+  <si>
+    <t>TCMNG07</t>
+  </si>
+  <si>
+    <t>TCMNG08</t>
+  </si>
+  <si>
+    <t>TCMNG09</t>
+  </si>
+  <si>
+    <t>TCMNG10</t>
+  </si>
+  <si>
+    <t>Arctozenus risso</t>
+  </si>
+  <si>
+    <t>TCAR001</t>
+  </si>
+  <si>
+    <t>TCAR002</t>
+  </si>
+  <si>
+    <t>TCAR003</t>
+  </si>
+  <si>
+    <t>TCAR004</t>
+  </si>
+  <si>
+    <t>TCAR005</t>
+  </si>
+  <si>
+    <t>TCAR006</t>
+  </si>
+  <si>
+    <t>TCAR007</t>
+  </si>
+  <si>
+    <t>TCAR008</t>
+  </si>
+  <si>
+    <t>TCAR009</t>
+  </si>
+  <si>
+    <t>TCAR010</t>
+  </si>
+  <si>
+    <t>TCAR011</t>
+  </si>
+  <si>
+    <t>TCAR012</t>
+  </si>
+  <si>
+    <t>TCAR013</t>
+  </si>
+  <si>
+    <t>TCAR014</t>
+  </si>
+  <si>
+    <t>TCAR015</t>
+  </si>
+  <si>
+    <t>TCAR016</t>
+  </si>
+  <si>
+    <t>TCAR017</t>
+  </si>
+  <si>
+    <t>TCAR018</t>
+  </si>
+  <si>
+    <t>TCAR019</t>
+  </si>
+  <si>
+    <t>TCAR020</t>
+  </si>
+  <si>
+    <t>TCAR021</t>
+  </si>
+  <si>
+    <t>TCAR022</t>
+  </si>
+  <si>
+    <t>TCAR023</t>
+  </si>
+  <si>
+    <t>TCAR024</t>
+  </si>
+  <si>
+    <t>TCAR025</t>
+  </si>
+  <si>
+    <t>TCAR026</t>
+  </si>
+  <si>
+    <t>TCAR027</t>
+  </si>
+  <si>
+    <t>TCAR028</t>
+  </si>
+  <si>
+    <t>TCAR029</t>
+  </si>
+  <si>
+    <t>TCAR030</t>
+  </si>
+  <si>
+    <t>TCAR031</t>
+  </si>
+  <si>
+    <t>TCAR032</t>
+  </si>
+  <si>
+    <t>TCAR033</t>
   </si>
 </sst>
 </file>
@@ -500,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9127E4A-8ECD-4D47-9C12-4E88FA4092B9}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,6 +936,608 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TCMuscle.xlsx
+++ b/TCMuscle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Documents\Constraining FMR Mesopelagic\Metadata\Sample Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4817B6D4-D44C-4C42-9F83-733FD98C16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A96EE-5373-4B83-A34F-367F9DCA5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99A2342B-7E54-45F3-9C63-B2593C580EB8}"/>
+    <workbookView xWindow="-9900" yWindow="6048" windowWidth="17280" windowHeight="8964" xr2:uid="{99A2342B-7E54-45F3-9C63-B2593C580EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9127E4A-8ECD-4D47-9C12-4E88FA4092B9}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TCMuscle.xlsx
+++ b/TCMuscle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Documents\Constraining FMR Mesopelagic\Metadata\Sample Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A96EE-5373-4B83-A34F-367F9DCA5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66EFBFE-337B-416C-A279-D477A0B43BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9900" yWindow="6048" windowWidth="17280" windowHeight="8964" xr2:uid="{99A2342B-7E54-45F3-9C63-B2593C580EB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99A2342B-7E54-45F3-9C63-B2593C580EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="89">
   <si>
     <t>Trawl:</t>
   </si>
@@ -256,6 +256,51 @@
   </si>
   <si>
     <t>TCAR033</t>
+  </si>
+  <si>
+    <t>Macroparalepis affinis</t>
+  </si>
+  <si>
+    <t>TCMA021</t>
+  </si>
+  <si>
+    <t>TCMA022</t>
+  </si>
+  <si>
+    <t>TCMA023</t>
+  </si>
+  <si>
+    <t>TCMA024</t>
+  </si>
+  <si>
+    <t>TCMA025</t>
+  </si>
+  <si>
+    <t>TCAO004</t>
+  </si>
+  <si>
+    <t>Argyropelecus olfersii</t>
+  </si>
+  <si>
+    <t>TCAO011</t>
+  </si>
+  <si>
+    <t>TCAO013</t>
+  </si>
+  <si>
+    <t>TCAO014</t>
+  </si>
+  <si>
+    <t>TCAO015</t>
+  </si>
+  <si>
+    <t>TCAO017</t>
+  </si>
+  <si>
+    <t>TCAO018</t>
+  </si>
+  <si>
+    <t>TCAO019</t>
   </si>
 </sst>
 </file>
@@ -632,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9127E4A-8ECD-4D47-9C12-4E88FA4092B9}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,6 +1583,188 @@
         <v>10</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TCMuscle.xlsx
+++ b/TCMuscle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Documents\Constraining FMR Mesopelagic\Metadata\Sample Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66EFBFE-337B-416C-A279-D477A0B43BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D0BCD3-5DCC-435F-B2C3-E3FFB71EBB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99A2342B-7E54-45F3-9C63-B2593C580EB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="106">
   <si>
     <t>Trawl:</t>
   </si>
@@ -301,6 +301,57 @@
   </si>
   <si>
     <t>TCAO019</t>
+  </si>
+  <si>
+    <t>TCMM001</t>
+  </si>
+  <si>
+    <t>TCMM002</t>
+  </si>
+  <si>
+    <t>TCMM003</t>
+  </si>
+  <si>
+    <t>TCMM004</t>
+  </si>
+  <si>
+    <t>TCMM005</t>
+  </si>
+  <si>
+    <t>TCMM006</t>
+  </si>
+  <si>
+    <t>TCMM007</t>
+  </si>
+  <si>
+    <t>TCMM008</t>
+  </si>
+  <si>
+    <t>TCMM009</t>
+  </si>
+  <si>
+    <t>TCMM010</t>
+  </si>
+  <si>
+    <t>TCMM157</t>
+  </si>
+  <si>
+    <t>TCMM158</t>
+  </si>
+  <si>
+    <t>TCMM159</t>
+  </si>
+  <si>
+    <t>TCMM160</t>
+  </si>
+  <si>
+    <t>TCMM161</t>
+  </si>
+  <si>
+    <t>TCMM162</t>
+  </si>
+  <si>
+    <t>TCMM163</t>
   </si>
 </sst>
 </file>
@@ -677,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9127E4A-8ECD-4D47-9C12-4E88FA4092B9}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:A76"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,6 +779,9 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -742,6 +796,9 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -756,6 +813,9 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -770,6 +830,9 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -784,6 +847,9 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -798,6 +864,9 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -812,6 +881,9 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -826,6 +898,9 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -840,6 +915,9 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -854,6 +932,9 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -868,6 +949,9 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -882,6 +966,9 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -896,6 +983,9 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -910,6 +1000,9 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -924,8 +1017,11 @@
       <c r="D16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -938,8 +1034,11 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -952,8 +1051,11 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -966,8 +1068,11 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -980,8 +1085,11 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -994,8 +1102,11 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1008,8 +1119,11 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1022,8 +1136,11 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1036,8 +1153,11 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1050,8 +1170,11 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1064,8 +1187,11 @@
       <c r="D26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1078,8 +1204,11 @@
       <c r="D27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1092,8 +1221,11 @@
       <c r="D28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1106,8 +1238,11 @@
       <c r="D29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1120,8 +1255,11 @@
       <c r="D30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1134,8 +1272,11 @@
       <c r="D31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1148,8 +1289,11 @@
       <c r="D32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1162,8 +1306,11 @@
       <c r="D33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1176,8 +1323,11 @@
       <c r="D34" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1190,8 +1340,11 @@
       <c r="D35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1204,8 +1357,11 @@
       <c r="D36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1218,8 +1374,11 @@
       <c r="D37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1232,8 +1391,11 @@
       <c r="D38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1246,8 +1408,11 @@
       <c r="D39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6</v>
       </c>
@@ -1260,8 +1425,11 @@
       <c r="D40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1274,8 +1442,11 @@
       <c r="D41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1288,8 +1459,11 @@
       <c r="D42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1302,8 +1476,11 @@
       <c r="D43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1316,8 +1493,11 @@
       <c r="D44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1330,8 +1510,11 @@
       <c r="D45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1344,8 +1527,11 @@
       <c r="D46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1358,8 +1544,11 @@
       <c r="D47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1372,8 +1561,11 @@
       <c r="D48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1386,8 +1578,11 @@
       <c r="D49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1400,8 +1595,11 @@
       <c r="D50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1414,8 +1612,11 @@
       <c r="D51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1428,8 +1629,11 @@
       <c r="D52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1442,8 +1646,11 @@
       <c r="D53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1456,8 +1663,11 @@
       <c r="D54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1470,8 +1680,11 @@
       <c r="D55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1484,8 +1697,11 @@
       <c r="D56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1498,8 +1714,11 @@
       <c r="D57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1512,8 +1731,11 @@
       <c r="D58" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1526,8 +1748,11 @@
       <c r="D59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1540,8 +1765,11 @@
       <c r="D60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1554,8 +1782,11 @@
       <c r="D61" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1568,8 +1799,11 @@
       <c r="D62" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1582,8 +1816,11 @@
       <c r="D63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1762,6 +1999,244 @@
         <v>88</v>
       </c>
       <c r="D76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" t="s">
         <v>10</v>
       </c>
     </row>

--- a/TCMuscle.xlsx
+++ b/TCMuscle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Documents\Constraining FMR Mesopelagic\Metadata\Sample Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D0BCD3-5DCC-435F-B2C3-E3FFB71EBB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B99225-6D38-4C47-A040-CE79E77A35F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99A2342B-7E54-45F3-9C63-B2593C580EB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="133">
   <si>
     <t>Trawl:</t>
   </si>
@@ -352,6 +352,99 @@
   </si>
   <si>
     <t>TCMM163</t>
+  </si>
+  <si>
+    <t>TCMMS01</t>
+  </si>
+  <si>
+    <t>TCMMS02</t>
+  </si>
+  <si>
+    <t>TCMMS03</t>
+  </si>
+  <si>
+    <t>TCMMS04</t>
+  </si>
+  <si>
+    <t>TCMMS05</t>
+  </si>
+  <si>
+    <t>TCMMS06</t>
+  </si>
+  <si>
+    <t>TCMMS07</t>
+  </si>
+  <si>
+    <t>TCMMS08</t>
+  </si>
+  <si>
+    <t>TCMMS09</t>
+  </si>
+  <si>
+    <t>TCMMS10</t>
+  </si>
+  <si>
+    <t>TCMMS11</t>
+  </si>
+  <si>
+    <t>TCMMS12</t>
+  </si>
+  <si>
+    <t>TCMMS13</t>
+  </si>
+  <si>
+    <t>TCMMS14</t>
+  </si>
+  <si>
+    <t>TCMMS15</t>
+  </si>
+  <si>
+    <t>TCMMS16</t>
+  </si>
+  <si>
+    <t>TCMMS17</t>
+  </si>
+  <si>
+    <t>TCMMS18</t>
+  </si>
+  <si>
+    <t>TCMMS19</t>
+  </si>
+  <si>
+    <t>TCMMS20</t>
+  </si>
+  <si>
+    <t>TCMMS21</t>
+  </si>
+  <si>
+    <t>TCMMS22</t>
+  </si>
+  <si>
+    <t>TCMMS23</t>
+  </si>
+  <si>
+    <t>TCMMS24</t>
+  </si>
+  <si>
+    <t>TCMMS25</t>
+  </si>
+  <si>
+    <r>
+      <t>M. muelleri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> small</t>
+    </r>
+  </si>
+  <si>
+    <t>Not associated with otolith</t>
   </si>
 </sst>
 </file>
@@ -728,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9127E4A-8ECD-4D47-9C12-4E88FA4092B9}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:B93"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1038,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1055,7 +1148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1072,7 +1165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1089,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1105,8 +1198,11 @@
       <c r="E21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1122,8 +1218,11 @@
       <c r="E22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1139,8 +1238,11 @@
       <c r="E23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1156,8 +1258,11 @@
       <c r="E24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1173,8 +1278,11 @@
       <c r="E25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1190,8 +1298,11 @@
       <c r="E26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1207,8 +1318,11 @@
       <c r="E27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1224,8 +1338,11 @@
       <c r="E28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1241,8 +1358,11 @@
       <c r="E29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1258,8 +1378,11 @@
       <c r="E30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1276,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -2058,7 +2181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2072,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8</v>
       </c>
@@ -2086,7 +2209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2100,7 +2223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8</v>
       </c>
@@ -2114,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8</v>
       </c>
@@ -2128,7 +2251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8</v>
       </c>
@@ -2142,7 +2265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2156,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2170,7 +2293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2184,7 +2307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2198,7 +2321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2212,7 +2335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2226,7 +2349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2238,6 +2361,431 @@
       </c>
       <c r="D93" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" t="s">
+        <v>113</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" t="s">
+        <v>114</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" t="s">
+        <v>116</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C108" t="s">
+        <v>120</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>8</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" t="s">
+        <v>130</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
